--- a/medicine/Mort/Cimetière_militaire_du_Commonwealth_de_Chouain/Cimetière_militaire_du_Commonwealth_de_Chouain.xlsx
+++ b/medicine/Mort/Cimetière_militaire_du_Commonwealth_de_Chouain/Cimetière_militaire_du_Commonwealth_de_Chouain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Commonwealth_de_Chouain</t>
+          <t>Cimetière_militaire_du_Commonwealth_de_Chouain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire du Commonwealth de Chouain est un cimetière militaire de la Seconde Guerre mondiale, situé à Chouain, dans le Calvados. Il contient 47 tombes, en faisant l'un des plus petits cimetières gérés par la Commonwealth War Graves Commission.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Commonwealth_de_Chouain</t>
+          <t>Cimetière_militaire_du_Commonwealth_de_Chouain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est situé sur la commune de Chouain, à environ 9 km au sud-est de Bayeux. Il est localisé le long de la D6 menant de Bayeux à Tilly-sur-Seulles, dans le hameau de Jérusalem[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est situé sur la commune de Chouain, à environ 9 km au sud-est de Bayeux. Il est localisé le long de la D6 menant de Bayeux à Tilly-sur-Seulles, dans le hameau de Jérusalem.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Commonwealth_de_Chouain</t>
+          <t>Cimetière_militaire_du_Commonwealth_de_Chouain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la prise de Bayeux le 7 juin, les troupes anglaises progressent vers Tilly-sur-Seulles mais font face à une contre-attaque et une résistance allemande. Le 10 juin, le Durham Light Infantry enterre, au hameau de Jérusalem, sur la commune de Juaye-Mondaye, trois de ses soldats tués le jour même[2]. C'est finalement 35 corps qui y seront enterrés. Le cimetière actuel est créé sur la commune de Chouain, au lieu-dit Le Douet de Chouain, près du château de Belval, en regroupant les corps enterrés à Jérusalem et 12 autres reposant à Belval même.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la prise de Bayeux le 7 juin, les troupes anglaises progressent vers Tilly-sur-Seulles mais font face à une contre-attaque et une résistance allemande. Le 10 juin, le Durham Light Infantry enterre, au hameau de Jérusalem, sur la commune de Juaye-Mondaye, trois de ses soldats tués le jour même. C'est finalement 35 corps qui y seront enterrés. Le cimetière actuel est créé sur la commune de Chouain, au lieu-dit Le Douet de Chouain, près du château de Belval, en regroupant les corps enterrés à Jérusalem et 12 autres reposant à Belval même.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Commonwealth_de_Chouain</t>
+          <t>Cimetière_militaire_du_Commonwealth_de_Chouain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Tombes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire du Commonwealth de Chouain héberge 47 tombes, dont 46 Britanniques et 1 Tchécoslovaque. Il héberge également le corps de Jack Banks, tué à 16 ans, un des plus jeunes soldats britanniques tués au combat[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire du Commonwealth de Chouain héberge 47 tombes, dont 46 Britanniques et 1 Tchécoslovaque. Il héberge également le corps de Jack Banks, tué à 16 ans, un des plus jeunes soldats britanniques tués au combat.
 			Tombe tchèque.
 			Tombe de Jack Banks, 16 ans.
 </t>
